--- a/deployment/Omaha_Cal_Info_CE05MOAS-GL311_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE05MOAS-GL311_00002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ooi\ingestion-csvs\CE05MOAS-GL311\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,31 +16,31 @@
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$19</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$H$19</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$76</definedName>
+    <definedName name="_FilterDatabase_0_0">Moorings!$B$1:$K$76</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$A$1:$J$76</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$230</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$230</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$F$230</definedName>
-    <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$230</definedName>
-    <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$19</definedName>
-    <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$76</definedName>
-    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$230</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$B$1:$K$76</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$230</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$230</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$H$230</definedName>
+    <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$H$230</definedName>
+    <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$H$19</definedName>
+    <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$76</definedName>
+    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$230</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Ref Des</t>
   </si>
@@ -139,6 +139,33 @@
   </si>
   <si>
     <t>124°17.582'W</t>
+  </si>
+  <si>
+    <t>OL000360</t>
+  </si>
+  <si>
+    <t>A00078</t>
+  </si>
+  <si>
+    <t>N00304</t>
+  </si>
+  <si>
+    <t>N00303</t>
+  </si>
+  <si>
+    <t>N00302</t>
+  </si>
+  <si>
+    <t>N00301</t>
+  </si>
+  <si>
+    <t>N00300</t>
+  </si>
+  <si>
+    <t>Mooring OOIBARCODE</t>
+  </si>
+  <si>
+    <t>Sensor OOIBARCODE</t>
   </si>
 </sst>
 </file>
@@ -325,7 +352,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -389,6 +416,9 @@
     </xf>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -764,98 +794,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="2" max="2" width="37.85546875"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125"/>
+    <col min="8" max="8" width="18.7109375"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375"/>
+    <col min="13" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10">
+      <c r="C2" s="10">
         <v>311</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="23">
+      <c r="E2" s="23">
         <v>42391</v>
       </c>
-      <c r="E2" s="25">
+      <c r="F2" s="25">
         <v>0.86458333333333337</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>0</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="22">
-        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
+      <c r="L2" s="9"/>
+      <c r="M2" s="22">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>44.659133333333337</v>
       </c>
-      <c r="M2" s="22">
-        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
+      <c r="N2" s="22">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-124.29303333333333</v>
       </c>
     </row>
@@ -867,214 +903,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125"/>
-    <col min="8" max="8" width="11.85546875"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="13.42578125"/>
-    <col min="11" max="1025" width="8.7109375"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125"/>
+    <col min="10" max="10" width="11.85546875"/>
+    <col min="11" max="11" width="14.42578125"/>
+    <col min="12" max="12" width="13.42578125"/>
+    <col min="13" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14">
         <v>311</v>
       </c>
-      <c r="C2" s="14">
+      <c r="D2" s="14">
         <v>2</v>
       </c>
-      <c r="D2" s="19">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="19">
         <v>50145</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14">
         <v>311</v>
       </c>
-      <c r="C4" s="14">
+      <c r="D4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="19">
         <v>4040</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="21">
+      <c r="H4" s="21">
         <v>124</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14">
         <v>311</v>
       </c>
-      <c r="C5" s="14">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19">
         <v>4040</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="21">
+      <c r="H5" s="21">
         <v>700</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14">
         <v>311</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="19">
         <v>4040</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21">
+      <c r="H6" s="21">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14">
         <v>311</v>
       </c>
-      <c r="C7" s="14">
+      <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19">
         <v>4040</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="21">
+      <c r="H7" s="21">
         <v>3.9E-2</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14">
         <v>311</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="14">
         <v>2</v>
       </c>
-      <c r="D9" s="19">
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="19">
         <v>642931</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="24">
+      <c r="H9" s="24">
         <v>0.61</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -1083,28 +1165,34 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14">
         <v>311</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D10" s="14">
         <v>2</v>
       </c>
-      <c r="D10" s="19">
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="19">
         <v>642931</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="24">
+      <c r="H10" s="24">
         <v>0.61</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -1113,28 +1201,34 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="14">
         <v>311</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="14">
         <v>2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="19">
         <v>642931</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="24">
+      <c r="H11" s="24">
         <v>0.61</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1143,28 +1237,34 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14">
         <v>311</v>
       </c>
-      <c r="C12" s="14">
+      <c r="D12" s="14">
         <v>2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="19">
         <v>642931</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="24">
+      <c r="H12" s="24">
         <v>0.61</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -1173,16 +1273,18 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1191,108 +1293,134 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14">
         <v>311</v>
       </c>
-      <c r="C14" s="14">
+      <c r="D14" s="14">
         <v>2</v>
       </c>
-      <c r="D14" s="19">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="19">
         <v>26</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="14">
         <v>311</v>
       </c>
-      <c r="C16" s="14">
+      <c r="D16" s="14">
         <v>2</v>
       </c>
-      <c r="D16" s="19">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19">
         <v>9014</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="14">
         <v>311</v>
       </c>
-      <c r="C18" s="14">
+      <c r="D18" s="14">
         <v>2</v>
       </c>
-      <c r="D18" s="19">
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="19">
         <v>311</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
